--- a/Test123/TestResults/TestResult.xlsx
+++ b/Test123/TestResults/TestResult.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevAppPro\Test123\TestResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Jenkins\workspace\zephyr_uft1\Test123\TestResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4611550-7999-4514-B31A-00F4677C7BDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487F55FB-5B1B-48EB-952A-CFB28256C55F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{1BD4627C-0BDA-484E-A792-00F20DB1BB64}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>@22-04-2019 13:18:36</t>
-  </si>
-  <si>
     <t>TC_002_UpdateReservation_Reservations</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>The 'reservations - confirmation'  frame  exist, which is as expected.</t>
+  </si>
+  <si>
+    <t>@22-04-2019 15:33:58</t>
   </si>
 </sst>
 </file>
@@ -425,10 +425,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -449,19 +455,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Test123/TestResults/TestResult.xlsx
+++ b/Test123/TestResults/TestResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Jenkins\workspace\zephyr_uft1\Test123\TestResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487F55FB-5B1B-48EB-952A-CFB28256C55F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D593CC1-2ACE-47A4-B144-EB6AED39F8FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{1BD4627C-0BDA-484E-A792-00F20DB1BB64}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>The 'reservations - confirmation'  frame  exist, which is as expected.</t>
   </si>
   <si>
-    <t>@22-04-2019 15:33:58</t>
+    <t>@22-04-2019 15:41:01</t>
   </si>
 </sst>
 </file>
